--- a/ComparaisonJeu.xlsx
+++ b/ComparaisonJeu.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell G3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell G3\Desktop\Devoirs\BUT3\ia\SAE-IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB8C143-EE86-49F1-9D24-09E5B07D0748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44F619-1A58-4043-9AA5-6200D908442C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5F2CFC5-267E-43DF-97D2-5A5BEB9D2875}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>taille jeu</t>
   </si>
@@ -93,6 +93,54 @@
   </si>
   <si>
     <t>377.417</t>
+  </si>
+  <si>
+    <t>1.059</t>
+  </si>
+  <si>
+    <t>Joueur2 gagne</t>
+  </si>
+  <si>
+    <t>4.141</t>
+  </si>
+  <si>
+    <t>mnk</t>
+  </si>
+  <si>
+    <t>5x5</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>11.968</t>
+  </si>
+  <si>
+    <t>2.927</t>
+  </si>
+  <si>
+    <t>états explorés MinMax</t>
+  </si>
+  <si>
+    <t>états explorés AlphaBeta</t>
+  </si>
+  <si>
+    <t>Temps (s)</t>
+  </si>
+  <si>
+    <t>mnk 5x5</t>
+  </si>
+  <si>
+    <t>mnk 10x10</t>
+  </si>
+  <si>
+    <t>Tableur en dessous juste pour les graphiques</t>
   </si>
 </sst>
 </file>
@@ -108,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -220,6 +274,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,6 +290,2069 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>États explorés MinMax en fonction du temps</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$C$18:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0,11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0,91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377.417</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557487</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>922749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171700</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1923825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4B82-4F2F-8B02-A3C671581582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>États explorés AlphaBeta en fonction du temps</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$C$18:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0,11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0,91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377.417</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$18:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>17596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>64925</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>27065</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>35386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>251192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4B82-4F2F-8B02-A3C671581582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="583554767"/>
+        <c:axId val="583555247"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="583554767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583555247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="583555247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583554767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>États</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> explorés en fonction des différents jeux</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>états explorés MinMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$C$31:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tictactoe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mnk 5x5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Connect 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mnk 10x10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gomoku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$31:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>557487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>922749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1923825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2D1-4D78-8BAA-624C09D18734}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>états explorés AlphaBeta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$C$31:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tictactoe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mnk 5x5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Connect 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mnk 10x10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gomoku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$31:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2D1-4D78-8BAA-624C09D18734}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="772999183"/>
+        <c:axId val="772999663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="772999183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772999663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="772999663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772999183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A02EC9A-3309-41C8-AA5D-B93D4B579DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813C8BB5-E51C-6C42-C9A7-63BB7A4B2160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BEEA06-2717-4799-B2CC-E672E72977A1}">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,19 +2685,11 @@
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
     <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>14</v>
@@ -639,61 +2749,343 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>922749</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="8">
+        <v>64925</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
       <c r="E9" s="5">
-        <v>1923825</v>
+        <v>168221</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" s="8">
+        <v>27065</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>171700</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="8">
+        <v>35386</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1923825</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
         <v>251192</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.107</v>
+      </c>
+      <c r="D18">
+        <v>120000</v>
+      </c>
+      <c r="E18" s="8">
+        <v>17596</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="D19" s="5">
+        <v>557487</v>
+      </c>
+      <c r="E19">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>430000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>64925</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>300000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>27065</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>270000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>35386</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5">
+        <v>168221</v>
+      </c>
+      <c r="E23">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5">
+        <v>922749</v>
+      </c>
+      <c r="E24">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5">
+        <v>171700</v>
+      </c>
+      <c r="E25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>700000</v>
+      </c>
+      <c r="E26" s="8">
+        <v>251192</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1923825</v>
+      </c>
+      <c r="E27">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5">
+        <v>557487</v>
+      </c>
+      <c r="E31" s="8">
+        <v>17596</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5">
+        <v>922749</v>
+      </c>
+      <c r="E32" s="8">
+        <v>64925</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <v>168221</v>
+      </c>
+      <c r="E33" s="8">
+        <v>27065</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="5">
+        <v>171700</v>
+      </c>
+      <c r="E34" s="8">
+        <v>35386</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1923825</v>
+      </c>
+      <c r="E35" s="8">
+        <v>251192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ComparaisonJeu.xlsx
+++ b/ComparaisonJeu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell G3\Desktop\Devoirs\BUT3\ia\SAE-IA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\IUT\3A\S5\IntroductionIA\SAE-IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44F619-1A58-4043-9AA5-6200D908442C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B32079D-BE48-4138-978C-64D470BDB63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5F2CFC5-267E-43DF-97D2-5A5BEB9D2875}"/>
+    <workbookView xWindow="14190" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{F5F2CFC5-267E-43DF-97D2-5A5BEB9D2875}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="112">
   <si>
     <t>taille jeu</t>
   </si>
@@ -141,16 +141,253 @@
   </si>
   <si>
     <t>Tableur en dessous juste pour les graphiques</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>Problème</t>
+  </si>
+  <si>
+    <t>rnd</t>
+  </si>
+  <si>
+    <t>bfs</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>ucs</t>
+  </si>
+  <si>
+    <t>gfs</t>
+  </si>
+  <si>
+    <t>astar</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>Coût</t>
+  </si>
+  <si>
+    <t>états explorés</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Problème (dummy)</t>
+  </si>
+  <si>
+    <t>1572.4948775695832</t>
+  </si>
+  <si>
+    <t>0,007 sec</t>
+  </si>
+  <si>
+    <t>0,004 sec</t>
+  </si>
+  <si>
+    <t>1719.4506178846962</t>
+  </si>
+  <si>
+    <t>0,011 sec</t>
+  </si>
+  <si>
+    <t>30980.752615841193</t>
+  </si>
+  <si>
+    <t>0,013 sec</t>
+  </si>
+  <si>
+    <t>0,009 sec</t>
+  </si>
+  <si>
+    <t>2282.165489708158</t>
+  </si>
+  <si>
+    <t>n~10^2 k = 5</t>
+  </si>
+  <si>
+    <t>Très facile</t>
+  </si>
+  <si>
+    <t>Très simple</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Difficile</t>
+  </si>
+  <si>
+    <t>Très difficile</t>
+  </si>
+  <si>
+    <t>Taille(n)</t>
+  </si>
+  <si>
+    <t>Facteur de branchement (k)</t>
+  </si>
+  <si>
+    <t>Graine</t>
+  </si>
+  <si>
+    <t>Difficulté</t>
+  </si>
+  <si>
+    <t>n~10^2 k = 2</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>0,008 sec</t>
+  </si>
+  <si>
+    <t>facile</t>
+  </si>
+  <si>
+    <t>n~10^3 k = 3</t>
+  </si>
+  <si>
+    <t>n~10^4 k = 4</t>
+  </si>
+  <si>
+    <t>8,049 sec</t>
+  </si>
+  <si>
+    <t>7521.319105999773</t>
+  </si>
+  <si>
+    <t>3,949 sec</t>
+  </si>
+  <si>
+    <t>3971.0530517419766</t>
+  </si>
+  <si>
+    <t>8,304 sec</t>
+  </si>
+  <si>
+    <t>4119235.131724489</t>
+  </si>
+  <si>
+    <t>10,751 sec</t>
+  </si>
+  <si>
+    <t>3526.4692773849947</t>
+  </si>
+  <si>
+    <t>18,005 sec</t>
+  </si>
+  <si>
+    <t>16220.209153486552</t>
+  </si>
+  <si>
+    <t>8,226 sec</t>
+  </si>
+  <si>
+    <t>n~50 000 k = 5</t>
+  </si>
+  <si>
+    <t>4069.479721959591</t>
+  </si>
+  <si>
+    <t>1.8444604239156943E7</t>
+  </si>
+  <si>
+    <t>522,136 sec</t>
+  </si>
+  <si>
+    <t>645,514 sec</t>
+  </si>
+  <si>
+    <t>3592.979834481036</t>
+  </si>
+  <si>
+    <t>1013,307 sec</t>
+  </si>
+  <si>
+    <t>16723.790765091595</t>
+  </si>
+  <si>
+    <t>383,563 sec</t>
+  </si>
+  <si>
+    <t>956,672 sec</t>
+  </si>
+  <si>
+    <t>7652.954675242736</t>
+  </si>
+  <si>
+    <t>4646.435242513757</t>
+  </si>
+  <si>
+    <t>38943.89746267833</t>
+  </si>
+  <si>
+    <t>7049.501460528446</t>
+  </si>
+  <si>
+    <t>0,01 sec</t>
+  </si>
+  <si>
+    <t>fait</t>
+  </si>
+  <si>
+    <t>2548.9715885223704</t>
+  </si>
+  <si>
+    <t>0,028 sec</t>
+  </si>
+  <si>
+    <t>0,051 sec</t>
+  </si>
+  <si>
+    <t>12504.048140861101</t>
+  </si>
+  <si>
+    <t>0,032 sec</t>
+  </si>
+  <si>
+    <t>147287.14433960532</t>
+  </si>
+  <si>
+    <t>0,025 sec</t>
+  </si>
+  <si>
+    <t>0,036 sec</t>
+  </si>
+  <si>
+    <t>7640.800462439074</t>
+  </si>
+  <si>
+    <t>0,044 sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,11 +481,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -275,6 +583,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,7 +646,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -745,7 +1096,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2352,11 +2703,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173812</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>62112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>597259</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>5308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2781264-3F01-92EC-D6F3-FA5DD58EFD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9400267" y="13766739"/>
+          <a:ext cx="5797253" cy="327039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2672,25 +3067,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BEEA06-2717-4799-B2CC-E672E72977A1}">
-  <dimension ref="A3:G35"/>
+  <dimension ref="A3:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2713,7 +3108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2736,7 +3131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="8">
         <v>17596</v>
       </c>
@@ -2747,7 +3142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2770,7 +3165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="8">
         <v>64925</v>
       </c>
@@ -2781,7 +3176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +3199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="8">
         <v>27065</v>
       </c>
@@ -2815,7 +3210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2838,7 +3233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="8">
         <v>35386</v>
       </c>
@@ -2849,7 +3244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2872,7 +3267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" s="8">
         <v>251192</v>
       </c>
@@ -2883,14 +3278,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +3296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +3310,7 @@
         <v>17596</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +3324,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2940,7 +3335,7 @@
         <v>64925</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -2951,7 +3346,7 @@
         <v>27065</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
@@ -2962,7 +3357,7 @@
         <v>35386</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2973,7 +3368,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2984,7 +3379,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
@@ -2995,7 +3390,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>17</v>
       </c>
@@ -3006,7 +3401,7 @@
         <v>251192</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
         <v>18</v>
       </c>
@@ -3017,8 +3412,8 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
@@ -3029,7 +3424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
@@ -3040,7 +3435,7 @@
         <v>17596</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
@@ -3051,7 +3446,7 @@
         <v>64925</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>10</v>
       </c>
@@ -3062,7 +3457,7 @@
         <v>27065</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
@@ -3073,7 +3468,7 @@
         <v>35386</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
@@ -3084,8 +3479,988 @@
         <v>251192</v>
       </c>
     </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4">
+        <v>450</v>
+      </c>
+      <c r="E45" s="4">
+        <v>7</v>
+      </c>
+      <c r="F45" s="12">
+        <v>31</v>
+      </c>
+      <c r="G45" s="13">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="4">
+        <v>450</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="12">
+        <v>21</v>
+      </c>
+      <c r="G46" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="4">
+        <v>575</v>
+      </c>
+      <c r="E47" s="4">
+        <v>11</v>
+      </c>
+      <c r="F47" s="12">
+        <v>29</v>
+      </c>
+      <c r="G47" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="4">
+        <v>418</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5</v>
+      </c>
+      <c r="F48" s="12">
+        <v>31</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="4">
+        <v>450</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3</v>
+      </c>
+      <c r="F49" s="12">
+        <v>10</v>
+      </c>
+      <c r="G49" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="4">
+        <v>418</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
+      <c r="F50" s="12">
+        <v>16</v>
+      </c>
+      <c r="G50" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="4">
+        <v>9</v>
+      </c>
+      <c r="F56" s="12">
+        <v>472</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="4">
+        <v>5</v>
+      </c>
+      <c r="F57" s="12">
+        <v>497</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="4">
+        <v>62</v>
+      </c>
+      <c r="F58" s="12">
+        <v>312</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="4">
+        <v>9</v>
+      </c>
+      <c r="F59" s="12">
+        <v>537</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="4">
+        <v>4</v>
+      </c>
+      <c r="F60" s="12">
+        <v>32</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="4">
+        <v>6</v>
+      </c>
+      <c r="F61" s="12">
+        <v>147</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="4">
+        <v>100</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="16">
+        <v>786597272</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D67" s="4">
+        <v>3</v>
+      </c>
+      <c r="E67" s="17">
+        <v>1142418294</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D68" s="4">
+        <v>4</v>
+      </c>
+      <c r="E68" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D69" s="4">
+        <v>5</v>
+      </c>
+      <c r="E69" s="17">
+        <v>1322200015</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="15">
+        <v>100000</v>
+      </c>
+      <c r="D70" s="15">
+        <v>6</v>
+      </c>
+      <c r="E70" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="4">
+        <v>14</v>
+      </c>
+      <c r="F75" s="12">
+        <v>200</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="4">
+        <v>9</v>
+      </c>
+      <c r="F76" s="12">
+        <v>190</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="4">
+        <v>76</v>
+      </c>
+      <c r="F77" s="12">
+        <v>170</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="4">
+        <v>11</v>
+      </c>
+      <c r="F78" s="12">
+        <v>208</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="4">
+        <v>17</v>
+      </c>
+      <c r="F79" s="12">
+        <v>226</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="15">
+        <v>11</v>
+      </c>
+      <c r="F80" s="22">
+        <v>210</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="4">
+        <v>17</v>
+      </c>
+      <c r="F85" s="12">
+        <v>1787</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="4">
+        <v>7</v>
+      </c>
+      <c r="F86" s="12">
+        <v>1562</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="4">
+        <v>285</v>
+      </c>
+      <c r="F87" s="12">
+        <v>857</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="4">
+        <v>10</v>
+      </c>
+      <c r="F88" s="12">
+        <v>1247</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="4">
+        <v>42</v>
+      </c>
+      <c r="F89" s="12">
+        <v>3302</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" s="15">
+        <v>9</v>
+      </c>
+      <c r="F90" s="22">
+        <v>533</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="4">
+        <v>20</v>
+      </c>
+      <c r="F95" s="12">
+        <v>35394</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="4">
+        <v>8</v>
+      </c>
+      <c r="F96" s="12">
+        <v>23150</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="4">
+        <v>7693</v>
+      </c>
+      <c r="F97" s="12">
+        <v>32918</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="4">
+        <v>15</v>
+      </c>
+      <c r="F98" s="12">
+        <v>49703</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="4">
+        <v>96</v>
+      </c>
+      <c r="F99" s="12">
+        <v>109890</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="15">
+        <v>16</v>
+      </c>
+      <c r="F100" s="22">
+        <v>32862</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E106" s="4">
+        <v>8</v>
+      </c>
+      <c r="F106" s="12">
+        <v>192572</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E107" s="4">
+        <v>34374</v>
+      </c>
+      <c r="F107" s="12">
+        <v>174242</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="4">
+        <v>19</v>
+      </c>
+      <c r="F108" s="12">
+        <v>322913</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E109" s="4">
+        <v>143</v>
+      </c>
+      <c r="F109" s="12">
+        <v>113072</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E110" s="15">
+        <v>18</v>
+      </c>
+      <c r="F110" s="22">
+        <v>199317</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>